--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13A00B3-5938-42E1-AF0D-939888383FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D59C4-0327-4017-B12C-A2A988648C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1050" windowWidth="23190" windowHeight="13200" xr2:uid="{86668DF6-C863-402B-9678-6997394C233E}"/>
+    <workbookView xWindow="1095" yWindow="1740" windowWidth="23190" windowHeight="13200" xr2:uid="{86668DF6-C863-402B-9678-6997394C233E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2FFDA-A695-4626-9816-2D5FF9937ECF}">
   <dimension ref="C1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3">
         <v>100</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="3">
         <v>100</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3">
         <v>100</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{A79A36A2-7B12-4BC2-B44E-0FDFAFE3DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5324085-1249-4F8F-B816-0DA950494281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1455" windowWidth="24975" windowHeight="13200" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="2985" yWindow="1920" windowWidth="21480" windowHeight="13095" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5324085-1249-4F8F-B816-0DA950494281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82BA07-DF5D-46E1-81BD-037346108DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1920" windowWidth="21480" windowHeight="13095" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="2895" yWindow="1185" windowWidth="20760" windowHeight="13365" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.2">
@@ -1071,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.2">
@@ -1109,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.2">

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82BA07-DF5D-46E1-81BD-037346108DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A499E-92BC-4B3B-97F6-28D6A244FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1185" windowWidth="20760" windowHeight="13365" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1095" yWindow="1005" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,19 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">       //Seed =1,种子
-        Commodity=2,货物
-        Furniture=3,家具
-        HoeTool=4,锄地工具
-        ChopTool=5,砍树工具
-        BreakTool=6,砸石头工具
-        ReapTool=7,割草工具
-        WaterTool=8,浇水工具
-        CollectionTool=9,收割工具
-        ReapableScenary=10,可被割的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,6 +263,19 @@
   </si>
   <si>
     <t>//百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       //Seed =0,种子
+        Commodity=1,货物
+        Furniture=2,家具
+        HoeTool=3,锄地工具
+        ChopTool=4,砍树工具
+        BreakTool=5,砸石头工具
+        ReapTool=6,割草工具
+        WaterTool=7,浇水工具
+        CollectionTool=8,收割工具
+        ReapableScenary=9,可被割的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,15 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="38.75" customWidth="1"/>
@@ -688,13 +688,13 @@
   <sheetData>
     <row r="1" spans="3:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.2">
@@ -746,31 +746,31 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.2">
@@ -778,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1</v>
@@ -816,19 +816,19 @@
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>1002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -892,19 +892,19 @@
         <v>1003</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>1004</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -968,19 +968,19 @@
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1006,19 +1006,19 @@
         <v>1006</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1044,19 +1044,19 @@
         <v>1007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1082,19 +1082,19 @@
         <v>1008</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1120,19 +1120,19 @@
         <v>1009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -1158,19 +1158,19 @@
         <v>1010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>1011</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1234,19 +1234,19 @@
         <v>1012</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>1013</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A499E-92BC-4B3B-97F6-28D6A244FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D9315-87B7-4B62-A16C-52CC4917026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="1005" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,6 +276,17 @@
         WaterTool=7,浇水工具
         CollectionTool=8,收割工具
         ReapableScenary=9,可被割的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_WateringCan</t>
+  </si>
+  <si>
+    <t>浇水的水壶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
-  <dimension ref="C1:N28"/>
+  <dimension ref="C1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -968,19 +979,19 @@
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -992,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
@@ -1006,19 +1017,19 @@
         <v>1006</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1033,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2">
         <v>50</v>
@@ -1044,19 +1055,19 @@
         <v>1007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1071,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
         <v>50</v>
@@ -1082,19 +1093,19 @@
         <v>1008</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1109,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N13" s="2">
         <v>50</v>
@@ -1120,37 +1131,37 @@
         <v>1009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2">
         <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>15</v>
-      </c>
-      <c r="N14" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.2">
@@ -1158,37 +1169,37 @@
         <v>1010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.2">
@@ -1196,19 +1207,19 @@
         <v>1011</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1234,19 +1245,19 @@
         <v>1012</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -1272,49 +1283,76 @@
         <v>1013</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
@@ -1415,6 +1453,17 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934D9315-87B7-4B62-A16C-52CC4917026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B789B-9EA1-488F-BAA2-4776A4BBFB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1005" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>浇水的水壶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜篮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Basket</t>
+  </si>
+  <si>
+    <t>icon_Basket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是收菜的菜篮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +693,7 @@
   <dimension ref="C1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1355,15 +1370,42 @@
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="C20" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B789B-9EA1-488F-BAA2-4776A4BBFB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EEA65-B5B8-4AC8-A691-44E8AAB58041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="990" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -302,6 +302,14 @@
   </si>
   <si>
     <t>这是收菜的菜篮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potato_grow_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grape_grow_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +701,7 @@
   <dimension ref="C1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1239,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>34</v>
@@ -1307,7 +1315,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EEA65-B5B8-4AC8-A691-44E8AAB58041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1D761-CA33-4E70-AF76-0EDFBACBC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,6 +310,28 @@
   </si>
   <si>
     <t>Grape_grow_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针叶树根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_NeedieSeed</t>
+  </si>
+  <si>
+    <t>松子，可以贩卖也可以种下，也许会长成大树哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree01_Trunk</t>
+  </si>
+  <si>
+    <t>针叶树砍倒后留下的树根</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1416,26 +1438,80 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="C21" s="2">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="C22" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1D761-CA33-4E70-AF76-0EDFBACBC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B569E26B-6211-480E-99DF-4980CF378896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -332,6 +332,39 @@
   </si>
   <si>
     <t>针叶树砍倒后留下的树根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶原木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BroadleafWood</t>
+  </si>
+  <si>
+    <t>BroadleafWood_Harvest</t>
+  </si>
+  <si>
+    <t>阔叶种子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BroadleafSeed</t>
+  </si>
+  <si>
+    <t>阔叶种子，可以贩卖也可以种下，也许会长成大树哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶树根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree02_Trunk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶树砍倒后留下的树根</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,37 +1547,118 @@
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="C23" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15</v>
+      </c>
+      <c r="N23" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="C24" s="2">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>10</v>
+      </c>
+      <c r="N24" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="C25" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B569E26B-6211-480E-99DF-4980CF378896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D8484-5E27-40A9-89F0-78CF76D44F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1335" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
+    <workbookView xWindow="495" yWindow="1200" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>//1 = true，0=false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//百分比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -366,6 +362,24 @@
   <si>
     <t>阔叶树砍倒后留下的树根</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Rock</t>
+  </si>
+  <si>
+    <t>石头敲碎后留下的碎石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//贩卖百分比 100代表不减价 25表示减少25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock_Harvest</t>
   </si>
 </sst>
 </file>
@@ -755,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,13 +791,13 @@
   <sheetData>
     <row r="1" spans="3:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
         <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.2">
@@ -1057,19 +1071,19 @@
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1294,7 +1308,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>34</v>
@@ -1370,7 +1384,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>37</v>
@@ -1437,19 +1451,19 @@
         <v>1015</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2">
         <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -1475,19 +1489,19 @@
         <v>1016</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -1513,19 +1527,19 @@
         <v>1017</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2">
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -1551,19 +1565,19 @@
         <v>1018</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="2">
         <v>2</v>
@@ -1589,19 +1603,19 @@
         <v>1019</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -1627,49 +1641,76 @@
         <v>1020</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2">
         <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>

--- a/Excel/ItemConfig.xlsx
+++ b/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D8484-5E27-40A9-89F0-78CF76D44F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F04A7AD-BA47-4661-8C9D-223A319382FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="1200" windowWidth="21600" windowHeight="12630" xr2:uid="{4C018A64-3AF0-444C-B6D6-33D809B179F1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -380,6 +380,22 @@
   </si>
   <si>
     <t>Rock_Harvest</t>
+  </si>
+  <si>
+    <t>一捆草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass_Harvest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割的一捆杂草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -769,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8769E0-C6FD-4986-BDF3-32A25BB93C01}">
   <dimension ref="C1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,15 +1729,42 @@
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="C27" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
